--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value901.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value901.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.966360528598595</v>
+        <v>1.425012350082397</v>
       </c>
       <c r="B1">
-        <v>2.315731364724747</v>
+        <v>3.200057744979858</v>
       </c>
       <c r="C1">
-        <v>2.392996117432733</v>
+        <v>1.946813225746155</v>
       </c>
       <c r="D1">
-        <v>3.079473095366993</v>
+        <v>1.343174695968628</v>
       </c>
       <c r="E1">
-        <v>1.683617378247298</v>
+        <v>1.11332094669342</v>
       </c>
     </row>
   </sheetData>
